--- a/doc/信号表.xlsx
+++ b/doc/信号表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" firstSheet="1" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12600" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="需要实现的指令" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="hi_src" sheetId="17" r:id="rId13"/>
     <sheet name="lo_we" sheetId="15" r:id="rId14"/>
     <sheet name="lo_src" sheetId="18" r:id="rId15"/>
+    <sheet name="use_rs" sheetId="19" r:id="rId16"/>
+    <sheet name="use_rt" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="93">
   <si>
     <t>opcode</t>
   </si>
@@ -315,11 +317,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,10 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,9 +345,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +361,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -365,17 +384,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,23 +400,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,16 +430,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,22 +461,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,7 +476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,7 +521,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +587,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,25 +641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,109 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,63 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -755,11 +708,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,157 +744,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +952,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6250,8 +6266,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="M15:M18 R15:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7902,8 +7918,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L14:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9555,7 +9571,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="Q15" sqref="N15:N18 Q15:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12853,13 +12869,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="L18" sqref="L14:S15 L18:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12935,35 +12951,3339 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
         <v>000</v>
       </c>
-      <c r="L2" s="4" t="str">
+      <c r="L2" s="2" t="str">
+        <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
+        <v>...</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f ca="1" t="shared" ref="O2:O9" si="5">INDIRECT(CHAR(66+E$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f ca="1" t="shared" ref="P2:P9" si="6">INDIRECT(CHAR(66+F$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f ca="1" t="shared" ref="Q2:Q9" si="7">INDIRECT(CHAR(66+G$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f ca="1" t="shared" ref="R2:R9" si="8">INDIRECT(CHAR(66+H$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f ca="1" t="shared" ref="S2:S9" si="9">INDIRECT(CHAR(66+I$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>001</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ref="L12:S12" si="10">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>011</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>010</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" ref="K13:K20" si="11">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f ca="1" t="shared" ref="L13:L20" si="12">INDIRECT(CHAR(66+B$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f ca="1" t="shared" ref="M13:M20" si="13">INDIRECT(CHAR(66+C$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f ca="1" t="shared" ref="N13:N20" si="14">INDIRECT(CHAR(66+D$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f ca="1" t="shared" ref="O13:O20" si="15">INDIRECT(CHAR(66+E$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f ca="1" t="shared" ref="P13:P20" si="16">INDIRECT(CHAR(66+F$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f ca="1" t="shared" ref="Q13:Q20" si="17">INDIRECT(CHAR(66+G$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f ca="1" t="shared" ref="R13:R20" si="18">INDIRECT(CHAR(66+H$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f ca="1" t="shared" ref="S13:S20" si="19">INDIRECT(CHAR(66+I$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>001</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>011</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>010</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" ref="L23:S23" si="20">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>001</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>011</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>010</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>110</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" ref="K24:K27" si="21">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f ca="1" t="shared" ref="L24:L27" si="22">INDIRECT(CHAR(66+B$30)&amp;(24+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f ca="1" t="shared" ref="M24:M27" si="23">INDIRECT(CHAR(66+C$30)&amp;(24+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f ca="1" t="shared" ref="N24:N27" si="24">INDIRECT(CHAR(66+D$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f ca="1" t="shared" ref="O24:O27" si="25">INDIRECT(CHAR(66+E$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f ca="1" t="shared" ref="P24:P27" si="26">INDIRECT(CHAR(66+F$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f ca="1" t="shared" ref="Q24:Q27" si="27">INDIRECT(CHAR(66+G$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f ca="1" t="shared" ref="R24:R27" si="28">INDIRECT(CHAR(66+H$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f ca="1" t="shared" ref="S24:S27" si="29">INDIRECT(CHAR(66+I$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>001</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>011</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>010</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L13:S13 L20:S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f t="shared" ref="L1:S1" si="0">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K9" si="1">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
+        <v>...</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f ca="1" t="shared" ref="O2:O9" si="5">INDIRECT(CHAR(66+E$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f ca="1" t="shared" ref="P2:P9" si="6">INDIRECT(CHAR(66+F$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f ca="1" t="shared" ref="Q2:Q9" si="7">INDIRECT(CHAR(66+G$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f ca="1" t="shared" ref="R2:R9" si="8">INDIRECT(CHAR(66+H$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f ca="1" t="shared" ref="S2:S9" si="9">INDIRECT(CHAR(66+I$30)&amp;(2+$B30))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>001</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v> </v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ref="L12:S12" si="10">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>011</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>010</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" ref="K13:K20" si="11">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f ca="1" t="shared" ref="L13:L20" si="12">INDIRECT(CHAR(66+B$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f ca="1" t="shared" ref="M13:M20" si="13">INDIRECT(CHAR(66+C$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f ca="1" t="shared" ref="N13:N20" si="14">INDIRECT(CHAR(66+D$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f ca="1" t="shared" ref="O13:O20" si="15">INDIRECT(CHAR(66+E$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f ca="1" t="shared" ref="P13:P20" si="16">INDIRECT(CHAR(66+F$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f ca="1" t="shared" ref="Q13:Q20" si="17">INDIRECT(CHAR(66+G$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f ca="1" t="shared" ref="R13:R20" si="18">INDIRECT(CHAR(66+H$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f ca="1" t="shared" ref="S13:S20" si="19">INDIRECT(CHAR(66+I$30)&amp;(13+$B30))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>001</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>011</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>010</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" ref="L23:S23" si="20">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>001</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>011</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>010</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>110</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" ref="K24:K27" si="21">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f ca="1" t="shared" ref="L24:L27" si="22">INDIRECT(CHAR(66+B$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f ca="1" t="shared" ref="M24:M27" si="23">INDIRECT(CHAR(66+C$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f ca="1" t="shared" ref="N24:N27" si="24">INDIRECT(CHAR(66+D$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f ca="1" t="shared" ref="O24:O27" si="25">INDIRECT(CHAR(66+E$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f ca="1" t="shared" ref="P24:P27" si="26">INDIRECT(CHAR(66+F$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f ca="1" t="shared" ref="Q24:Q27" si="27">INDIRECT(CHAR(66+G$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f ca="1" t="shared" ref="R24:R27" si="28">INDIRECT(CHAR(66+H$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f ca="1" t="shared" ref="S24:S27" si="29">INDIRECT(CHAR(66+I$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>001</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>011</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>010</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v> </v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v> </v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="L2 L5 L6 L9 N2 N5:N6 N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f t="shared" ref="L1:S1" si="0">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K9" si="1">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L2" s="5" t="str">
         <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
         <v>1</v>
       </c>
@@ -12971,7 +16291,7 @@
         <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
         <v>...</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="N2" s="6" t="str">
         <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
         <v>1</v>
       </c>
@@ -13158,7 +16478,7 @@
         <f t="shared" si="1"/>
         <v>010</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="6" t="str">
         <f ca="1" t="shared" si="2"/>
         <v>*</v>
       </c>
@@ -13166,7 +16486,7 @@
         <f ca="1" t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="N5" s="2" t="str">
+      <c r="N5" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>*</v>
       </c>
@@ -13223,7 +16543,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="6" t="str">
         <f ca="1" t="shared" si="2"/>
         <v>*</v>
       </c>
@@ -13231,7 +16551,7 @@
         <f ca="1" t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="N6" s="2" t="str">
+      <c r="N6" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>*</v>
       </c>
@@ -13418,7 +16738,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L9" s="2" t="str">
+      <c r="L9" s="6" t="str">
         <f ca="1" t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -13426,7 +16746,7 @@
         <f ca="1" t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="str">
+      <c r="N9" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -14514,7 +17834,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16160,7 +19480,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17717,7 +21037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -17744,6 +21064,21 @@
       </c>
       <c r="I30" s="2">
         <v>4</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -22679,22 +26014,22 @@
         <v>52</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="P29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -22732,10 +26067,10 @@
         <v>23</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>47</v>
@@ -22758,10 +26093,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">

--- a/doc/信号表.xlsx
+++ b/doc/信号表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600" firstSheet="6" activeTab="16"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="需要实现的指令" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="99">
   <si>
     <t>opcode</t>
   </si>
@@ -161,6 +161,12 @@
     <t>JALR</t>
   </si>
   <si>
+    <t>SYSCALL</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
     <t>MFHI</t>
   </si>
   <si>
@@ -245,6 +251,21 @@
     <t>11</t>
   </si>
   <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>MFC0</t>
+  </si>
+  <si>
+    <t>MTC0</t>
+  </si>
+  <si>
+    <t>ERET</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -293,9 +314,6 @@
     <t>rs&gt;=0</t>
   </si>
   <si>
-    <t>rs</t>
-  </si>
-  <si>
     <t>PC+OFFSET</t>
   </si>
   <si>
@@ -317,9 +335,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -339,6 +357,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -347,9 +372,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,14 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -385,25 +402,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,8 +432,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,22 +455,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,14 +471,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +479,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,13 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +545,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +587,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,67 +683,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,55 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,17 +709,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,45 +752,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,153 +780,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1518,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -1612,7 +1630,7 @@
       </c>
       <c r="L5" s="2" t="str">
         <f ca="1" t="shared" si="3"/>
-        <v>*</v>
+        <v>...</v>
       </c>
       <c r="M5" s="2" t="str">
         <f ca="1" t="shared" si="4"/>
@@ -2063,10 +2081,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
@@ -2104,11 +2122,11 @@
       </c>
       <c r="R14" s="2" t="str">
         <f ca="1" t="shared" ref="R14:R20" si="20">INDIRECT(CHAR(66+H$30)&amp;(13+$B31))</f>
-        <v>*</v>
+        <v>BREAK</v>
       </c>
       <c r="S14" s="2" t="str">
         <f ca="1" t="shared" ref="S14:S20" si="21">INDIRECT(CHAR(66+I$30)&amp;(13+$B31))</f>
-        <v>*</v>
+        <v>SYSCALL</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -2116,16 +2134,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -2181,16 +2199,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -2246,28 +2264,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="13"/>
@@ -2317,10 +2335,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -2506,18 +2524,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2544,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f>B29</f>
@@ -2581,13 +2599,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -2646,7 +2664,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -2711,13 +2729,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -2776,7 +2794,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -2839,7 +2857,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2864,8 +2882,14 @@
       <c r="I29" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2893,37 +2917,127 @@
       <c r="I30" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="K30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2951,6 +3065,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L33:S34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3040,28 +3157,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -3105,28 +3222,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3300,22 +3417,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -3365,16 +3482,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -3638,28 +3755,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -3703,10 +3820,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -3768,16 +3885,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -3833,16 +3950,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -3898,28 +4015,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -3969,10 +4086,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -4158,18 +4275,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -4196,7 +4313,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -4233,13 +4350,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -4298,7 +4415,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -4363,13 +4480,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -4428,7 +4545,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -4692,28 +4809,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -4757,28 +4874,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -4952,22 +5069,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -5017,16 +5134,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -5290,28 +5407,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -5355,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -5420,16 +5537,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -5485,16 +5602,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -5550,28 +5667,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5621,10 +5738,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -5810,18 +5927,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -5848,7 +5965,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -5885,13 +6002,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -5950,7 +6067,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -6015,13 +6132,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -6080,7 +6197,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -6347,25 +6464,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -6409,28 +6526,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6604,22 +6721,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -6669,16 +6786,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -6942,28 +7059,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -7007,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -7072,16 +7189,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -7137,16 +7254,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -7202,28 +7319,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -7273,10 +7390,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -7462,18 +7579,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -7500,7 +7617,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -7537,13 +7654,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -7602,7 +7719,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -7667,13 +7784,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -7732,7 +7849,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -8727,7 +8844,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
@@ -8789,16 +8906,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -9114,18 +9231,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -9152,7 +9269,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -9189,7 +9306,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -9254,7 +9371,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -9319,7 +9436,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -9384,7 +9501,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -9651,25 +9768,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -9713,28 +9830,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -9908,22 +10025,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -9973,16 +10090,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -10246,28 +10363,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -10311,10 +10428,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -10376,16 +10493,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -10441,16 +10558,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -10506,28 +10623,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -10577,10 +10694,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -10766,18 +10883,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -10804,7 +10921,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -10841,13 +10958,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -10906,7 +11023,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -10971,13 +11088,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -11036,7 +11153,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -12037,7 +12154,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -12093,16 +12210,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -12418,18 +12535,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -12456,7 +12573,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -12493,7 +12610,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -12558,7 +12675,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -12623,7 +12740,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -12688,7 +12805,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -12955,25 +13072,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -13017,28 +13134,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13212,22 +13329,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -13277,16 +13394,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -13550,28 +13667,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -13615,10 +13732,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -13680,16 +13797,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -13745,16 +13862,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -13810,28 +13927,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -13881,10 +13998,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -14070,18 +14187,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -14108,7 +14225,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -14145,13 +14262,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -14210,7 +14327,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -14275,13 +14392,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -14340,7 +14457,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -14526,7 +14643,7 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L13:S13 L20:S20"/>
     </sheetView>
   </sheetViews>
@@ -14607,25 +14724,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -14669,28 +14786,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -14864,22 +14981,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -14929,16 +15046,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -15202,28 +15319,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -15267,10 +15384,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -15332,16 +15449,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -15397,16 +15514,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -15462,28 +15579,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -15533,10 +15650,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -15722,18 +15839,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -15760,7 +15877,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -15797,13 +15914,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -15862,7 +15979,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -15927,13 +16044,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -15992,7 +16109,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -16256,28 +16373,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -16321,28 +16438,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -16516,22 +16633,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -16581,16 +16698,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -16854,28 +16971,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -16919,10 +17036,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -16984,16 +17101,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -17049,16 +17166,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -17114,28 +17231,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -17185,10 +17302,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -17374,18 +17491,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -17412,7 +17529,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -17449,13 +17566,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -17514,7 +17631,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -17579,13 +17696,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -17644,7 +17761,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -17733,7 +17850,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -17911,28 +18028,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -17970,28 +18087,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -18165,22 +18282,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -18230,16 +18347,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -18500,28 +18617,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -18565,10 +18682,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -18630,16 +18747,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -18695,16 +18812,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -18760,28 +18877,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -18831,10 +18948,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -19020,18 +19137,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -19058,7 +19175,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -19095,7 +19212,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -19160,7 +19277,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -19225,13 +19342,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -19290,7 +19407,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -19379,7 +19496,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -19560,13 +19677,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -19622,28 +19739,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -19817,22 +19934,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -20155,28 +20272,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -20223,7 +20340,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -20285,13 +20402,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
@@ -20415,28 +20532,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20486,10 +20603,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -20675,18 +20792,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -20713,7 +20830,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -20750,7 +20867,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -20815,7 +20932,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -20880,13 +20997,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -20945,7 +21062,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -21034,7 +21151,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -21066,19 +21183,19 @@
         <v>4</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -21233,22 +21350,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -21292,28 +21409,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21487,22 +21604,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -21552,16 +21669,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -21825,28 +21942,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -21890,10 +22007,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -21955,16 +22072,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -22020,16 +22137,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -22085,28 +22202,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -22156,10 +22273,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -22345,18 +22462,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -22383,7 +22500,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -22420,13 +22537,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -22485,7 +22602,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -22550,13 +22667,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -22615,7 +22732,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -22879,28 +22996,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -23542,10 +23659,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -23997,18 +24114,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -24035,7 +24152,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -24072,13 +24189,13 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -24137,7 +24254,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -24202,13 +24319,13 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -24267,7 +24384,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -25324,16 +25441,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -25389,28 +25506,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -25460,10 +25577,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -25649,18 +25766,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -25687,7 +25804,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -25724,7 +25841,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -25789,7 +25906,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -25854,7 +25971,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -25919,7 +26036,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -26008,28 +26125,28 @@
         <v>5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -26073,16 +26190,16 @@
         <v>37</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -26093,10 +26210,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -26302,25 +26419,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -26835,28 +26952,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -27030,16 +27147,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -27095,28 +27212,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -27166,10 +27283,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -27355,18 +27472,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -27393,7 +27510,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -27430,7 +27547,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -27495,7 +27612,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -27560,7 +27677,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -27625,7 +27742,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -27889,7 +28006,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -27954,25 +28071,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -28487,28 +28604,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -28682,16 +28799,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -28747,28 +28864,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -28818,10 +28935,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -29007,18 +29124,18 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -29045,7 +29162,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" ref="L23:S23" si="20">B29</f>
@@ -29082,7 +29199,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -29147,7 +29264,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -29212,7 +29329,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -29277,7 +29394,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>24</v>

--- a/doc/信号表.xlsx
+++ b/doc/信号表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600"/>
+    <workbookView windowWidth="21540" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需要实现的指令" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,15 @@
     <sheet name="lo_src" sheetId="18" r:id="rId15"/>
     <sheet name="use_rs" sheetId="19" r:id="rId16"/>
     <sheet name="use_rt" sheetId="20" r:id="rId17"/>
+    <sheet name="sys" sheetId="21" r:id="rId18"/>
+    <sheet name="bp" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="108">
   <si>
     <t>opcode</t>
   </si>
@@ -251,6 +253,9 @@
     <t>11</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>010000</t>
   </si>
   <si>
@@ -266,19 +271,31 @@
     <t>ERET</t>
   </si>
   <si>
+    <t>minterms</t>
+  </si>
+  <si>
+    <t>0,3,8,9,10,11,12,13,14,15,32,33,35,36,37</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>虽然本来不应该 wb，但是 rd=0，可以看作 wb 到 zero 寄存器，不会有影响</t>
+    <t>dont cares</t>
+  </si>
+  <si>
+    <t>17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,34,38,39,42,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63</t>
   </si>
   <si>
     <t>rd</t>
   </si>
   <si>
     <t>31</t>
+  </si>
+  <si>
+    <t>虽然本来不应该 wb，但是 rd=0，可以看作 wb 到 zero 寄存器，不会有影响</t>
   </si>
   <si>
     <t>PC+8</t>
@@ -328,18 +345,30 @@
   <si>
     <t>u</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1,5,10,11,14,15,20,21,22,23,28,29,30,31,40,41,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,23 +377,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,8 +399,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -394,32 +422,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,46 +439,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,10 +455,62 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,7 +536,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,13 +650,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,121 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,15 +739,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -737,21 +755,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -762,6 +765,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,6 +801,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -791,144 +833,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -937,22 +964,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,22 +987,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2883,10 +2910,10 @@
         <v>5</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -2918,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>1</v>
@@ -2956,7 +2983,7 @@
         <v>65</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>24</v>
@@ -2968,7 +2995,7 @@
         <v>24</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>24</v>
@@ -3026,7 +3053,7 @@
         <v>69</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3080,7 +3107,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3157,28 +3184,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -3222,28 +3249,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -3417,22 +3444,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -3482,16 +3509,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -3755,28 +3782,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -3820,10 +3847,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -3885,16 +3912,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -3950,16 +3977,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -4015,28 +4042,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -4086,10 +4113,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -4353,10 +4380,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -4483,10 +4510,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -4732,7 +4759,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4809,28 +4836,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -4874,28 +4901,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -5069,22 +5096,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -5134,16 +5161,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -5407,28 +5434,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -5472,10 +5499,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -5537,16 +5564,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -5602,16 +5629,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -5667,28 +5694,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -5738,10 +5765,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -6005,10 +6032,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -6135,10 +6162,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -6384,7 +6411,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="M15:M18 R15:R18"/>
+      <selection activeCell="H17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -6464,25 +6491,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -6526,28 +6553,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -6721,22 +6748,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -6786,16 +6813,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -7059,28 +7086,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -7124,10 +7151,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -7189,16 +7216,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -7254,16 +7281,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -7319,28 +7346,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -7390,10 +7417,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -7657,10 +7684,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -7787,10 +7814,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -8036,7 +8063,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L15" sqref="L14:S15"/>
+      <selection activeCell="H24" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8844,7 +8871,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
@@ -8906,16 +8933,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -9688,7 +9715,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="N15:N18 Q15:Q18"/>
+      <selection activeCell="H18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9768,25 +9795,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -9830,28 +9857,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -10025,22 +10052,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -10090,16 +10117,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -10363,28 +10390,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -10428,10 +10455,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -10493,16 +10520,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -10558,16 +10585,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -10623,28 +10650,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -10694,10 +10721,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -10961,10 +10988,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -11091,10 +11118,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -11340,7 +11367,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I19" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12154,7 +12181,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -12210,16 +12237,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -12992,7 +13019,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L14:S15 L18:S19"/>
+      <selection activeCell="I18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13072,25 +13099,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -13134,28 +13161,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -13329,22 +13356,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -13394,16 +13421,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -13667,28 +13694,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -13732,10 +13759,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -13797,16 +13824,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -13862,16 +13889,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -13927,28 +13954,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -13998,10 +14025,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -14265,10 +14292,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -14395,10 +14422,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -14644,7 +14671,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L13:S13 L20:S20"/>
+      <selection activeCell="I17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14724,25 +14751,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -14786,28 +14813,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -14981,22 +15008,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -15046,16 +15073,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -15319,28 +15346,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -15384,10 +15411,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -15449,16 +15476,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -15514,16 +15541,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -15579,28 +15606,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -15650,10 +15677,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -15917,10 +15944,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -16047,10 +16074,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -16284,6 +16311,3532 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f t="shared" ref="L1:S1" si="0">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K9" si="1">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
+        <v>...</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f ca="1" t="shared" ref="O2:O9" si="5">INDIRECT(CHAR(66+E$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f ca="1" t="shared" ref="P2:P9" si="6">INDIRECT(CHAR(66+F$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f ca="1" t="shared" ref="Q2:Q9" si="7">INDIRECT(CHAR(66+G$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f ca="1" t="shared" ref="R2:R9" si="8">INDIRECT(CHAR(66+H$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f ca="1" t="shared" ref="S2:S9" si="9">INDIRECT(CHAR(66+I$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>001</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v> </v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ref="L12:S12" si="10">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>011</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>010</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" ref="K13:K20" si="11">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f ca="1" t="shared" ref="L13:L20" si="12">INDIRECT(CHAR(66+B$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f ca="1" t="shared" ref="M13:M20" si="13">INDIRECT(CHAR(66+C$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f ca="1" t="shared" ref="N13:N20" si="14">INDIRECT(CHAR(66+D$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f ca="1" t="shared" ref="O13:O20" si="15">INDIRECT(CHAR(66+E$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f ca="1" t="shared" ref="P13:P20" si="16">INDIRECT(CHAR(66+F$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f ca="1" t="shared" ref="Q13:Q20" si="17">INDIRECT(CHAR(66+G$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f ca="1" t="shared" ref="R13:R20" si="18">INDIRECT(CHAR(66+H$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f ca="1" t="shared" ref="S13:S20" si="19">INDIRECT(CHAR(66+I$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>001</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v> </v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>SYSCALL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>011</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>010</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v> </v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v> </v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v> </v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" ref="L23:S23" si="20">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>001</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>011</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>010</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>110</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" ref="K24:K27" si="21">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f ca="1" t="shared" ref="L24:L27" si="22">INDIRECT(CHAR(66+B$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f ca="1" t="shared" ref="M24:M27" si="23">INDIRECT(CHAR(66+C$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f ca="1" t="shared" ref="N24:N27" si="24">INDIRECT(CHAR(66+D$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f ca="1" t="shared" ref="O24:O27" si="25">INDIRECT(CHAR(66+E$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f ca="1" t="shared" ref="P24:P27" si="26">INDIRECT(CHAR(66+F$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f ca="1" t="shared" ref="Q24:Q27" si="27">INDIRECT(CHAR(66+G$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f ca="1" t="shared" ref="R24:R27" si="28">INDIRECT(CHAR(66+H$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f ca="1" t="shared" ref="S24:S27" si="29">INDIRECT(CHAR(66+I$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>001</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>011</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>010</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v> </v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v> </v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L33:S34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="str">
+        <f t="shared" ref="L1:S1" si="0">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>001</v>
+      </c>
+      <c r="N1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>011</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>010</v>
+      </c>
+      <c r="P1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Q1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="R1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="S1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K9" si="1">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
+        <v>...</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f ca="1" t="shared" ref="O2:O9" si="5">INDIRECT(CHAR(66+E$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f ca="1" t="shared" ref="P2:P9" si="6">INDIRECT(CHAR(66+F$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f ca="1" t="shared" ref="Q2:Q9" si="7">INDIRECT(CHAR(66+G$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f ca="1" t="shared" ref="R2:R9" si="8">INDIRECT(CHAR(66+H$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f ca="1" t="shared" ref="S2:S9" si="9">INDIRECT(CHAR(66+I$30)&amp;(2+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>001</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v> </v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v> </v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v> </v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>011</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>010</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S5" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S6" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v>*</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>*</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v>*</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S7" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v>*</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f ca="1" t="shared" si="2"/>
+        <v> </v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v> </v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f ca="1" t="shared" si="4"/>
+        <v> </v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f ca="1" t="shared" si="5"/>
+        <v>*</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f ca="1" t="shared" si="6"/>
+        <v>*</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f ca="1" t="shared" si="7"/>
+        <v>*</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f ca="1" t="shared" si="8"/>
+        <v> </v>
+      </c>
+      <c r="S9" s="2" t="str">
+        <f ca="1" t="shared" si="9"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ref="L12:S12" si="10">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>001</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>011</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>010</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" ref="K13:K20" si="11">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f ca="1" t="shared" ref="L13:L20" si="12">INDIRECT(CHAR(66+B$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f ca="1" t="shared" ref="M13:M20" si="13">INDIRECT(CHAR(66+C$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f ca="1" t="shared" ref="N13:N20" si="14">INDIRECT(CHAR(66+D$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f ca="1" t="shared" ref="O13:O20" si="15">INDIRECT(CHAR(66+E$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f ca="1" t="shared" ref="P13:P20" si="16">INDIRECT(CHAR(66+F$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f ca="1" t="shared" ref="Q13:Q20" si="17">INDIRECT(CHAR(66+G$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f ca="1" t="shared" ref="R13:R20" si="18">INDIRECT(CHAR(66+H$30)&amp;(13+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S13" s="2" t="str">
+        <f ca="1" t="shared" ref="S13:S20" si="19">INDIRECT(CHAR(66+I$30)&amp;(13+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>001</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>BREAK</v>
+      </c>
+      <c r="S14" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>011</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S15" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>010</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S16" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S17" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>111</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v>*</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v>*</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>101</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v>*</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v>*</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v>*</v>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v>*</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f ca="1" t="shared" si="12"/>
+        <v> </v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f ca="1" t="shared" si="13"/>
+        <v> </v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f ca="1" t="shared" si="14"/>
+        <v> </v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f ca="1" t="shared" si="15"/>
+        <v> </v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f ca="1" t="shared" si="16"/>
+        <v> </v>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f ca="1" t="shared" si="17"/>
+        <v> </v>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f ca="1" t="shared" si="18"/>
+        <v> </v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f ca="1" t="shared" si="19"/>
+        <v> </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" ref="L23:S23" si="20">B29</f>
+        <v>000</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>001</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>011</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>010</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>110</v>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>111</v>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>101</v>
+      </c>
+      <c r="S23" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" ref="K24:K27" si="21">A30</f>
+        <v>000</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f ca="1" t="shared" ref="L24:L27" si="22">INDIRECT(CHAR(66+B$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f ca="1" t="shared" ref="M24:M27" si="23">INDIRECT(CHAR(66+C$30)&amp;(24+$B30))</f>
+        <v> </v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f ca="1" t="shared" ref="N24:N27" si="24">INDIRECT(CHAR(66+D$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f ca="1" t="shared" ref="O24:O27" si="25">INDIRECT(CHAR(66+E$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f ca="1" t="shared" ref="P24:P27" si="26">INDIRECT(CHAR(66+F$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f ca="1" t="shared" ref="Q24:Q27" si="27">INDIRECT(CHAR(66+G$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f ca="1" t="shared" ref="R24:R27" si="28">INDIRECT(CHAR(66+H$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+      <c r="S24" s="2" t="str">
+        <f ca="1" t="shared" ref="S24:S27" si="29">INDIRECT(CHAR(66+I$30)&amp;(24+$B30))</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>001</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S25" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>011</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v>*</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S26" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>010</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f ca="1" t="shared" si="22"/>
+        <v> </v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f ca="1" t="shared" si="23"/>
+        <v> </v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f ca="1" t="shared" si="24"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f ca="1" t="shared" si="25"/>
+        <v>*</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f ca="1" t="shared" si="26"/>
+        <v>*</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f ca="1" t="shared" si="27"/>
+        <v>*</v>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f ca="1" t="shared" si="28"/>
+        <v>*</v>
+      </c>
+      <c r="S27" s="2" t="str">
+        <f ca="1" t="shared" si="29"/>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L33:S34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -16293,10 +19846,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="L2 L5 L6 L9 N2 N5:N6 N9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16304,7 +19857,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16367,40 +19920,46 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
         <v>000</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="4" t="str">
         <f ca="1" t="shared" ref="L2:L9" si="2">INDIRECT(CHAR(66+B$30)&amp;(2+$B30))</f>
         <v>1</v>
       </c>
@@ -16408,7 +19967,7 @@
         <f ca="1" t="shared" ref="M2:M9" si="3">INDIRECT(CHAR(66+C$30)&amp;(2+$B30))</f>
         <v>...</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N2" s="2" t="str">
         <f ca="1" t="shared" ref="N2:N9" si="4">INDIRECT(CHAR(66+D$30)&amp;(2+$B30))</f>
         <v>1</v>
       </c>
@@ -16431,6 +19990,12 @@
       <c r="S2" s="2" t="str">
         <f ca="1" t="shared" ref="S2:S9" si="9">INDIRECT(CHAR(66+I$30)&amp;(2+$B30))</f>
         <v> </v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -16438,28 +20003,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -16503,7 +20068,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -16595,15 +20160,15 @@
         <f t="shared" si="1"/>
         <v>010</v>
       </c>
-      <c r="L5" s="6" t="str">
+      <c r="L5" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>*</v>
+        <v>...</v>
       </c>
       <c r="M5" s="2" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="N5" s="6" t="str">
+      <c r="N5" s="2" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>*</v>
       </c>
@@ -16633,22 +20198,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -16660,7 +20225,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="L6" s="6" t="str">
+      <c r="L6" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
         <v>*</v>
       </c>
@@ -16668,7 +20233,7 @@
         <f ca="1" t="shared" si="3"/>
         <v>*</v>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="N6" s="2" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>*</v>
       </c>
@@ -16698,16 +20263,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -16855,7 +20420,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -16863,7 +20428,7 @@
         <f ca="1" t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N9" s="6" t="str">
+      <c r="N9" s="2" t="str">
         <f ca="1" t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -16971,28 +20536,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -17036,10 +20601,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -17047,10 +20612,10 @@
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -17087,11 +20652,11 @@
         <f ca="1" t="shared" si="17"/>
         <v>*</v>
       </c>
-      <c r="R14" s="2" t="str">
+      <c r="R14" s="6" t="str">
         <f ca="1" t="shared" si="18"/>
         <v>*</v>
       </c>
-      <c r="S14" s="2" t="str">
+      <c r="S14" s="6" t="str">
         <f ca="1" t="shared" si="19"/>
         <v>*</v>
       </c>
@@ -17101,16 +20666,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -17166,16 +20731,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -17231,28 +20796,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -17302,10 +20867,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -17569,10 +21134,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -17699,10 +21264,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -17824,7 +21389,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
@@ -17849,11 +21414,14 @@
       <c r="I29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -17881,37 +21449,127 @@
       <c r="I30" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="K30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="K31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="K32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="K33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="2">
         <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -17939,6 +21597,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L33:S34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -17951,7 +21612,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -18028,28 +21689,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -18347,16 +22008,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -18617,28 +22278,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -18682,10 +22343,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -18747,16 +22408,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -18812,16 +22473,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -18877,28 +22538,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -18948,10 +22609,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -19345,10 +23006,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -19496,7 +23157,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -19597,7 +23258,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="G25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -19677,13 +23338,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -19739,28 +23400,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -19934,22 +23595,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -20272,28 +23933,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -20340,7 +24001,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -20402,13 +24063,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>24</v>
@@ -20532,28 +24193,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -20603,10 +24264,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -21000,10 +24661,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -21151,7 +24812,7 @@
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -21183,19 +24844,19 @@
         <v>4</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -21267,7 +24928,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -21350,22 +25011,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -21409,28 +25070,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -21604,22 +25265,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>24</v>
@@ -21669,16 +25330,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -21942,28 +25603,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -22007,10 +25668,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -22072,16 +25733,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -22137,16 +25798,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -22202,28 +25863,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -22273,10 +25934,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -22540,10 +26201,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -22670,10 +26331,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -22919,7 +26580,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H26" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -22996,28 +26657,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K2" s="2" t="str">
         <f t="shared" ref="K2:K9" si="1">A30</f>
@@ -23659,10 +27320,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>24</v>
@@ -24192,10 +27853,10 @@
         <v>65</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -24322,10 +27983,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -24570,8 +28231,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26276,8 +29937,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:O14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26419,25 +30080,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
@@ -26952,28 +30613,28 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" ref="K13:K20" si="11">A30</f>
@@ -27147,16 +30808,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -27212,28 +30873,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="11"/>
@@ -27283,10 +30944,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -27928,8 +31589,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -28071,25 +31732,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>24</v>
